--- a/artifacts/example-files/Fund.xlsx
+++ b/artifacts/example-files/Fund.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian.riddle/GitHub/ksys_loader_start/artifacts/pending/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian.riddle/GitHub/ksys_loader_start/artifacts/example-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27200" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Fund" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Fund Code</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>f1</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test1</t>
   </si>
 </sst>
 </file>
@@ -356,15 +362,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,8 +380,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -384,6 +393,9 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
